--- a/espn_scrapper/IPL/Chennai Super Kings/Ruturaj Gaikwad .xlsx
+++ b/espn_scrapper/IPL/Chennai Super Kings/Ruturaj Gaikwad .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -647,9 +647,149 @@
         <v>0.00</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v xml:space="preserve"> Oct 23 2020</v>
+      </c>
+      <c r="B8" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Mumbai won by 10 wickets (with 46 balls remaining)</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="F8" t="str">
+        <v xml:space="preserve">Ruturaj Gaikwad </v>
+      </c>
+      <c r="G8" t="str">
+        <v>0</v>
+      </c>
+      <c r="H8" t="str">
+        <v>5</v>
+      </c>
+      <c r="I8" t="str">
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
+        <v>0</v>
+      </c>
+      <c r="K8" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v xml:space="preserve"> Oct 29 2020</v>
+      </c>
+      <c r="B9" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Super Kings won by 6 wickets</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="F9" t="str">
+        <v xml:space="preserve">Ruturaj Gaikwad </v>
+      </c>
+      <c r="G9" t="str">
+        <v>72</v>
+      </c>
+      <c r="H9" t="str">
+        <v>53</v>
+      </c>
+      <c r="I9" t="str">
+        <v>6</v>
+      </c>
+      <c r="J9" t="str">
+        <v>2</v>
+      </c>
+      <c r="K9" t="str">
+        <v>135.84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v xml:space="preserve"> Sep 22 2020</v>
+      </c>
+      <c r="B10" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Royals won by 16 runs</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="F10" t="str">
+        <v xml:space="preserve">Ruturaj Gaikwad </v>
+      </c>
+      <c r="G10" t="str">
+        <v>0</v>
+      </c>
+      <c r="H10" t="str">
+        <v>1</v>
+      </c>
+      <c r="I10" t="str">
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
+        <v>0</v>
+      </c>
+      <c r="K10" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v xml:space="preserve"> Oct 25 2020</v>
+      </c>
+      <c r="B11" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Super Kings won by 8 wickets (with 8 balls remaining)</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="F11" t="str">
+        <v xml:space="preserve">Ruturaj Gaikwad </v>
+      </c>
+      <c r="G11" t="str">
+        <v>65</v>
+      </c>
+      <c r="H11" t="str">
+        <v>51</v>
+      </c>
+      <c r="I11" t="str">
+        <v>4</v>
+      </c>
+      <c r="J11" t="str">
+        <v>3</v>
+      </c>
+      <c r="K11" t="str">
+        <v>127.45</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
   </ignoredErrors>
 </worksheet>
 </file>